--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://levi-my.sharepoint.com/personal/bhn_levi_com/Documents/Desktop/WMS_Henderson/WMS_Henderson/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{6790BC98-6A5F-4209-8D52-C79D2E175F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B152519-988E-43CF-818B-A86B58867C5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303F1DC9-70D8-4F17-A828-0B0FC1721A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="208">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -599,12 +599,6 @@
     <t>MEPO230320135610</t>
   </si>
   <si>
-    <t>M-Z02-002-01-C-03</t>
-  </si>
-  <si>
-    <t>MZ0200201C03</t>
-  </si>
-  <si>
     <t>05/18/2023</t>
   </si>
   <si>
@@ -620,82 +614,85 @@
     <t>KILL0520230006</t>
   </si>
   <si>
-    <t>MZ0100201C16</t>
-  </si>
-  <si>
-    <t>M-Z01-002-01-C-16</t>
-  </si>
-  <si>
     <t>SEB8230713134759</t>
   </si>
   <si>
-    <t>TOTEAG99</t>
-  </si>
-  <si>
-    <t>CARTAG99</t>
-  </si>
-  <si>
-    <t>TOTEAG98</t>
-  </si>
-  <si>
-    <t>MSKI230724100913</t>
-  </si>
-  <si>
-    <t>LPN230724100913</t>
-  </si>
-  <si>
-    <t>SSKI230724152819</t>
-  </si>
-  <si>
-    <t>LPN230724152819</t>
-  </si>
-  <si>
-    <t>TOTEAG93</t>
-  </si>
-  <si>
-    <t>CARTAG93</t>
-  </si>
-  <si>
-    <t>MSKI230724152838</t>
-  </si>
-  <si>
-    <t>LPN230724152838</t>
-  </si>
-  <si>
-    <t>TOTEAG92</t>
-  </si>
-  <si>
-    <t>TOTEAG91</t>
-  </si>
-  <si>
-    <t>CARTAG92</t>
-  </si>
-  <si>
-    <t>SSKI230724182118</t>
-  </si>
-  <si>
-    <t>LPN230724182118</t>
-  </si>
-  <si>
-    <t>TOTEAG80</t>
-  </si>
-  <si>
-    <t>CARTAG80</t>
-  </si>
-  <si>
-    <t>TOTEAG01</t>
-  </si>
-  <si>
-    <t>052177000505</t>
-  </si>
-  <si>
-    <t>TOTEAG44</t>
-  </si>
-  <si>
     <t>MGC23180700025</t>
   </si>
   <si>
     <t>MBPK20231906085</t>
+  </si>
+  <si>
+    <t>SSKI230821142112</t>
+  </si>
+  <si>
+    <t>LPN230821142112</t>
+  </si>
+  <si>
+    <t>TOTEAJ60</t>
+  </si>
+  <si>
+    <t>CARTAJ60</t>
+  </si>
+  <si>
+    <t>SSKI230821142107</t>
+  </si>
+  <si>
+    <t>LPN230821142107</t>
+  </si>
+  <si>
+    <t>TOTEAJ61</t>
+  </si>
+  <si>
+    <t>CARTAJ61</t>
+  </si>
+  <si>
+    <t>MSKI230821142146</t>
+  </si>
+  <si>
+    <t>LPN230821142146</t>
+  </si>
+  <si>
+    <t>TOTEAJ62</t>
+  </si>
+  <si>
+    <t>TOTEAJ63</t>
+  </si>
+  <si>
+    <t>CARTAJ62</t>
+  </si>
+  <si>
+    <t>MSKI230821142136</t>
+  </si>
+  <si>
+    <t>LPN230821142136</t>
+  </si>
+  <si>
+    <t>TOTEAJ64</t>
+  </si>
+  <si>
+    <t>TOTEAJ65</t>
+  </si>
+  <si>
+    <t>CARTAJ65</t>
+  </si>
+  <si>
+    <t>TOTEAG02</t>
+  </si>
+  <si>
+    <t>192531158180</t>
+  </si>
+  <si>
+    <t>M-Z02-002-01-C-05</t>
+  </si>
+  <si>
+    <t>MZ0200201C05</t>
+  </si>
+  <si>
+    <t>MZ0200201C13</t>
+  </si>
+  <si>
+    <t>M-Z02-002-01-C-13</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1167,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1222,10 +1219,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>163</v>
@@ -1237,13 +1234,13 @@
         <v>163</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>168</v>
@@ -1267,7 +1264,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,13 +1287,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1323,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B2" s="13"/>
     </row>
@@ -1484,10 +1481,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -1956,7 +1953,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2139,10 +2136,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>155</v>
@@ -2154,10 +2151,10 @@
         <v>155</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2705,10 +2702,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2753,7 +2750,7 @@
         <v>167</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3200,7 +3197,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3252,10 +3249,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>163</v>
@@ -3267,13 +3264,13 @@
         <v>163</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>168</v>
@@ -4263,7 +4260,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4301,10 +4298,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>155</v>
@@ -4316,10 +4313,10 @@
         <v>155</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4376,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4399,7 +4396,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -4416,7 +4413,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4435,10 +4432,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -4453,7 +4450,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4472,10 +4469,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4516,13 +4513,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303F1DC9-70D8-4F17-A828-0B0FC1721A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553C402-F7DE-4B66-929A-474ECDC8C4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="209">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -527,9 +527,6 @@
     <t>ASBICS220630002</t>
   </si>
   <si>
-    <t>BPIME2022092407</t>
-  </si>
-  <si>
     <t>ToteID1</t>
   </si>
   <si>
@@ -587,42 +584,15 @@
     <t>qabhn</t>
   </si>
   <si>
-    <t>MEPO230320135530</t>
-  </si>
-  <si>
-    <t>TOTEMB35</t>
-  </si>
-  <si>
-    <t>CARTMB35</t>
-  </si>
-  <si>
-    <t>MEPO230320135610</t>
-  </si>
-  <si>
-    <t>05/18/2023</t>
-  </si>
-  <si>
-    <t>SBSO230619153746</t>
-  </si>
-  <si>
-    <t>SBSO230619143459</t>
-  </si>
-  <si>
     <t>FILL20230002</t>
   </si>
   <si>
     <t>KILL0520230006</t>
   </si>
   <si>
-    <t>SEB8230713134759</t>
-  </si>
-  <si>
     <t>MGC23180700025</t>
   </si>
   <si>
-    <t>MBPK20231906085</t>
-  </si>
-  <si>
     <t>SSKI230821142112</t>
   </si>
   <si>
@@ -635,18 +605,6 @@
     <t>CARTAJ60</t>
   </si>
   <si>
-    <t>SSKI230821142107</t>
-  </si>
-  <si>
-    <t>LPN230821142107</t>
-  </si>
-  <si>
-    <t>TOTEAJ61</t>
-  </si>
-  <si>
-    <t>CARTAJ61</t>
-  </si>
-  <si>
     <t>MSKI230821142146</t>
   </si>
   <si>
@@ -662,24 +620,6 @@
     <t>CARTAJ62</t>
   </si>
   <si>
-    <t>MSKI230821142136</t>
-  </si>
-  <si>
-    <t>LPN230821142136</t>
-  </si>
-  <si>
-    <t>TOTEAJ64</t>
-  </si>
-  <si>
-    <t>TOTEAJ65</t>
-  </si>
-  <si>
-    <t>CARTAJ65</t>
-  </si>
-  <si>
-    <t>TOTEAG02</t>
-  </si>
-  <si>
     <t>192531158180</t>
   </si>
   <si>
@@ -693,6 +633,69 @@
   </si>
   <si>
     <t>M-Z02-002-01-C-13</t>
+  </si>
+  <si>
+    <t>SSKI230821124459</t>
+  </si>
+  <si>
+    <t>LPN230821124459</t>
+  </si>
+  <si>
+    <t>TOTEAJ69</t>
+  </si>
+  <si>
+    <t>CARTAJ69</t>
+  </si>
+  <si>
+    <t>MSKI230821124506</t>
+  </si>
+  <si>
+    <t>LPN230821124506</t>
+  </si>
+  <si>
+    <t>TOTEAJ70</t>
+  </si>
+  <si>
+    <t>TOTEAJ71</t>
+  </si>
+  <si>
+    <t>CARTAJ70</t>
+  </si>
+  <si>
+    <t>TOTEAJ77</t>
+  </si>
+  <si>
+    <t>TOTEAJ55</t>
+  </si>
+  <si>
+    <t>SBA1230821055936</t>
+  </si>
+  <si>
+    <t>SEB1230821060020</t>
+  </si>
+  <si>
+    <t>SEB1230821060021</t>
+  </si>
+  <si>
+    <t>TOTEAJ97</t>
+  </si>
+  <si>
+    <t>CARTAJ97</t>
+  </si>
+  <si>
+    <t>MGWCS20231708006</t>
+  </si>
+  <si>
+    <t>USSG230821124450</t>
+  </si>
+  <si>
+    <t>USSG230821124448</t>
+  </si>
+  <si>
+    <t>USSG230821124447</t>
+  </si>
+  <si>
+    <t>08/22/2023</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -846,9 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -874,15 +874,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,70 +1187,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="D2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1286,14 +1288,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>206</v>
+      <c r="A2" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>207</v>
+        <v>168</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1323,9 +1325,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="13"/>
+        <v>173</v>
+      </c>
+      <c r="B2" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1480,11 +1482,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>179</v>
+      <c r="A2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1501,7 +1503,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,8 +1528,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>181</v>
+      <c r="A2" s="22" t="s">
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -1540,7 +1542,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1555,8 +1557,8 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1677,7 +1679,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1686,10 +1688,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1713,14 +1715,14 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>165</v>
+      <c r="J1" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>166</v>
+      <c r="L1" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>13</v>
@@ -1733,11 +1735,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>175</v>
+      <c r="A2" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1761,13 +1763,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -1780,7 +1782,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,8 +1927,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1951,9 +1953,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>183</v>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2113,10 +2115,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2128,33 +2130,33 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
         <v>153</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>187</v>
+      <c r="D2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2634,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2654,8 +2656,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>152</v>
+      <c r="A2" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -2675,7 +2677,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2688,7 +2690,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -2701,11 +2703,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>178</v>
+      <c r="A2" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2727,8 +2729,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2739,7 +2741,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
@@ -2747,10 +2749,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +3199,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3215,70 +3217,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4260,7 +4262,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4275,10 +4277,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" t="s">
-        <v>157</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -4290,32 +4292,32 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
         <v>153</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4353,7 +4355,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>119</v>
@@ -4376,7 +4378,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4396,7 +4398,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -4413,7 +4415,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4432,10 +4434,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -4450,7 +4452,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4469,10 +4471,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4512,14 +4514,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>205</v>
+      <c r="A2" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>204</v>
+        <v>168</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553C402-F7DE-4B66-929A-474ECDC8C4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367736B6-69AA-46BC-BCF3-D580D51EFE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="210">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -593,75 +593,15 @@
     <t>MGC23180700025</t>
   </si>
   <si>
-    <t>SSKI230821142112</t>
-  </si>
-  <si>
-    <t>LPN230821142112</t>
-  </si>
-  <si>
-    <t>TOTEAJ60</t>
-  </si>
-  <si>
-    <t>CARTAJ60</t>
-  </si>
-  <si>
-    <t>MSKI230821142146</t>
-  </si>
-  <si>
-    <t>LPN230821142146</t>
-  </si>
-  <si>
-    <t>TOTEAJ62</t>
-  </si>
-  <si>
-    <t>TOTEAJ63</t>
-  </si>
-  <si>
-    <t>CARTAJ62</t>
-  </si>
-  <si>
     <t>192531158180</t>
   </si>
   <si>
-    <t>M-Z02-002-01-C-05</t>
-  </si>
-  <si>
-    <t>MZ0200201C05</t>
-  </si>
-  <si>
     <t>MZ0200201C13</t>
   </si>
   <si>
     <t>M-Z02-002-01-C-13</t>
   </si>
   <si>
-    <t>SSKI230821124459</t>
-  </si>
-  <si>
-    <t>LPN230821124459</t>
-  </si>
-  <si>
-    <t>TOTEAJ69</t>
-  </si>
-  <si>
-    <t>CARTAJ69</t>
-  </si>
-  <si>
-    <t>MSKI230821124506</t>
-  </si>
-  <si>
-    <t>LPN230821124506</t>
-  </si>
-  <si>
-    <t>TOTEAJ70</t>
-  </si>
-  <si>
-    <t>TOTEAJ71</t>
-  </si>
-  <si>
-    <t>CARTAJ70</t>
-  </si>
-  <si>
     <t>TOTEAJ77</t>
   </si>
   <si>
@@ -696,6 +636,69 @@
   </si>
   <si>
     <t>08/22/2023</t>
+  </si>
+  <si>
+    <t>MSKI230901120249</t>
+  </si>
+  <si>
+    <t>LPN230901120249</t>
+  </si>
+  <si>
+    <t>TOTEBJ62</t>
+  </si>
+  <si>
+    <t>TOTEBJ63</t>
+  </si>
+  <si>
+    <t>CARTBJ62</t>
+  </si>
+  <si>
+    <t>MSKI230901120247</t>
+  </si>
+  <si>
+    <t>LPN230901120247</t>
+  </si>
+  <si>
+    <t>TOTEBJ71</t>
+  </si>
+  <si>
+    <t>TOTEBJ70</t>
+  </si>
+  <si>
+    <t>CARTBJ70</t>
+  </si>
+  <si>
+    <t>SSKI230901120232</t>
+  </si>
+  <si>
+    <t>LPN230901120232</t>
+  </si>
+  <si>
+    <t>TOTEBJ90</t>
+  </si>
+  <si>
+    <t>CARTBJ90</t>
+  </si>
+  <si>
+    <t>SSKI230901120230</t>
+  </si>
+  <si>
+    <t>LPN230901120230</t>
+  </si>
+  <si>
+    <t>TOTEBJ99</t>
+  </si>
+  <si>
+    <t>CARTBJ99</t>
+  </si>
+  <si>
+    <t>MZ0100101A02</t>
+  </si>
+  <si>
+    <t>M-Z01-001-01-A-02</t>
+  </si>
+  <si>
+    <t>476850003 3234</t>
   </si>
 </sst>
 </file>
@@ -1221,10 +1224,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -1236,13 +1239,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>167</v>
@@ -1265,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1289,13 +1292,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -1736,10 +1739,10 @@
     </row>
     <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1763,13 +1766,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -1955,7 +1958,7 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2100,7 +2103,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2138,10 +2141,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -2153,10 +2156,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -2704,10 +2707,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2729,7 +2732,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2752,7 +2755,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3202,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3251,10 +3254,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -3266,13 +3269,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>167</v>
@@ -4262,7 +4265,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4300,10 +4303,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -4315,10 +4318,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4398,7 +4401,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -4434,7 +4437,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>168</v>
@@ -4471,10 +4474,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4491,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4515,13 +4518,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367736B6-69AA-46BC-BCF3-D580D51EFE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881471BC-2B9B-49DD-AD76-FF06473FFEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="207">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -596,18 +596,6 @@
     <t>192531158180</t>
   </si>
   <si>
-    <t>MZ0200201C13</t>
-  </si>
-  <si>
-    <t>M-Z02-002-01-C-13</t>
-  </si>
-  <si>
-    <t>TOTEAJ77</t>
-  </si>
-  <si>
-    <t>TOTEAJ55</t>
-  </si>
-  <si>
     <t>SBA1230821055936</t>
   </si>
   <si>
@@ -638,67 +626,70 @@
     <t>08/22/2023</t>
   </si>
   <si>
-    <t>MSKI230901120249</t>
-  </si>
-  <si>
-    <t>LPN230901120249</t>
-  </si>
-  <si>
-    <t>TOTEBJ62</t>
-  </si>
-  <si>
-    <t>TOTEBJ63</t>
-  </si>
-  <si>
-    <t>CARTBJ62</t>
-  </si>
-  <si>
-    <t>MSKI230901120247</t>
-  </si>
-  <si>
-    <t>LPN230901120247</t>
-  </si>
-  <si>
-    <t>TOTEBJ71</t>
-  </si>
-  <si>
-    <t>TOTEBJ70</t>
-  </si>
-  <si>
-    <t>CARTBJ70</t>
-  </si>
-  <si>
-    <t>SSKI230901120232</t>
-  </si>
-  <si>
-    <t>LPN230901120232</t>
-  </si>
-  <si>
-    <t>TOTEBJ90</t>
-  </si>
-  <si>
-    <t>CARTBJ90</t>
-  </si>
-  <si>
-    <t>SSKI230901120230</t>
-  </si>
-  <si>
-    <t>LPN230901120230</t>
-  </si>
-  <si>
-    <t>TOTEBJ99</t>
-  </si>
-  <si>
-    <t>CARTBJ99</t>
-  </si>
-  <si>
-    <t>MZ0100101A02</t>
-  </si>
-  <si>
-    <t>M-Z01-001-01-A-02</t>
-  </si>
-  <si>
-    <t>476850003 3234</t>
+    <t>SSKI230914051914</t>
+  </si>
+  <si>
+    <t>LPN230914051914</t>
+  </si>
+  <si>
+    <t>SSKI230914051913</t>
+  </si>
+  <si>
+    <t>LPN230914051913</t>
+  </si>
+  <si>
+    <t>TOTECJ99</t>
+  </si>
+  <si>
+    <t>CARTCJ99</t>
+  </si>
+  <si>
+    <t>TOTECJ98</t>
+  </si>
+  <si>
+    <t>TOTECJ97</t>
+  </si>
+  <si>
+    <t>CARTCJ98</t>
+  </si>
+  <si>
+    <t>TOTECJ96</t>
+  </si>
+  <si>
+    <t>CARTCJ96</t>
+  </si>
+  <si>
+    <t>TOTECJ95</t>
+  </si>
+  <si>
+    <t>TOTECJ94</t>
+  </si>
+  <si>
+    <t>CARTCJ94</t>
+  </si>
+  <si>
+    <t>MSKI230914051920</t>
+  </si>
+  <si>
+    <t>LPN230914051920</t>
+  </si>
+  <si>
+    <t>MSKI230914051919</t>
+  </si>
+  <si>
+    <t>LPNMSKI230914051919</t>
+  </si>
+  <si>
+    <t>MZ0100201C15</t>
+  </si>
+  <si>
+    <t>M-Z01-002-01-C-15</t>
+  </si>
+  <si>
+    <t>MZ0100201C16</t>
+  </si>
+  <si>
+    <t>M-Z01-002-01-C-16</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1163,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1224,10 +1215,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -1239,13 +1230,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>167</v>
@@ -1268,8 +1259,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,13 +1283,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1523,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -1739,10 +1730,10 @@
     </row>
     <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1766,13 +1757,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -1958,7 +1949,7 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2103,7 +2094,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2141,10 +2132,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -2156,10 +2147,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2651,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -2707,10 +2698,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2755,7 +2746,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3193,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3254,10 +3245,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -3269,13 +3260,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>167</v>
@@ -4265,7 +4256,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4303,10 +4294,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -4318,10 +4309,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4401,7 +4392,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -4418,7 +4409,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4437,7 +4428,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>168</v>
@@ -4454,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D859A9-AF7E-43AB-8784-E4CD0AEDEF70}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4474,7 +4465,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>174</v>
@@ -4491,7 +4482,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4518,13 +4509,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881471BC-2B9B-49DD-AD76-FF06473FFEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCAFDD-A31D-43B3-84E7-F2357E36737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="210">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -599,21 +599,6 @@
     <t>SBA1230821055936</t>
   </si>
   <si>
-    <t>SEB1230821060020</t>
-  </si>
-  <si>
-    <t>SEB1230821060021</t>
-  </si>
-  <si>
-    <t>TOTEAJ97</t>
-  </si>
-  <si>
-    <t>CARTAJ97</t>
-  </si>
-  <si>
-    <t>MGWCS20231708006</t>
-  </si>
-  <si>
     <t>USSG230821124450</t>
   </si>
   <si>
@@ -626,70 +611,95 @@
     <t>08/22/2023</t>
   </si>
   <si>
-    <t>SSKI230914051914</t>
-  </si>
-  <si>
-    <t>LPN230914051914</t>
-  </si>
-  <si>
-    <t>SSKI230914051913</t>
-  </si>
-  <si>
-    <t>LPN230914051913</t>
-  </si>
-  <si>
-    <t>TOTECJ99</t>
-  </si>
-  <si>
-    <t>CARTCJ99</t>
-  </si>
-  <si>
-    <t>TOTECJ98</t>
-  </si>
-  <si>
     <t>TOTECJ97</t>
   </si>
   <si>
-    <t>CARTCJ98</t>
-  </si>
-  <si>
-    <t>TOTECJ96</t>
-  </si>
-  <si>
-    <t>CARTCJ96</t>
-  </si>
-  <si>
-    <t>TOTECJ95</t>
-  </si>
-  <si>
-    <t>TOTECJ94</t>
-  </si>
-  <si>
-    <t>CARTCJ94</t>
-  </si>
-  <si>
-    <t>MSKI230914051920</t>
-  </si>
-  <si>
-    <t>LPN230914051920</t>
-  </si>
-  <si>
-    <t>MSKI230914051919</t>
-  </si>
-  <si>
-    <t>LPNMSKI230914051919</t>
-  </si>
-  <si>
-    <t>MZ0100201C15</t>
-  </si>
-  <si>
-    <t>M-Z01-002-01-C-15</t>
-  </si>
-  <si>
-    <t>MZ0100201C16</t>
-  </si>
-  <si>
-    <t>M-Z01-002-01-C-16</t>
+    <t>TOTEBJ05</t>
+  </si>
+  <si>
+    <t>SGW1230914051742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SGW1230914051741</t>
+  </si>
+  <si>
+    <t>TOTECJ81</t>
+  </si>
+  <si>
+    <t>CARTCJ81</t>
+  </si>
+  <si>
+    <t>SB202324080011</t>
+  </si>
+  <si>
+    <t>MSKI230926121204</t>
+  </si>
+  <si>
+    <t>LPN230926121204</t>
+  </si>
+  <si>
+    <t>TOTEEJ40</t>
+  </si>
+  <si>
+    <t>TOTEEJ41</t>
+  </si>
+  <si>
+    <t>CARTEJ41</t>
+  </si>
+  <si>
+    <t>TOTEEJ42</t>
+  </si>
+  <si>
+    <t>CARTEJ42</t>
+  </si>
+  <si>
+    <t>TOTEEJ43</t>
+  </si>
+  <si>
+    <t>TOTEEJ44</t>
+  </si>
+  <si>
+    <t>CARTEJ44</t>
+  </si>
+  <si>
+    <t>TOTEEJ45</t>
+  </si>
+  <si>
+    <t>CARTEJ45</t>
+  </si>
+  <si>
+    <t>MSKI230926121202</t>
+  </si>
+  <si>
+    <t>LPN230926121202</t>
+  </si>
+  <si>
+    <t>SSKI230926121150</t>
+  </si>
+  <si>
+    <t>LPN230926121150</t>
+  </si>
+  <si>
+    <t>SSKI230926121148</t>
+  </si>
+  <si>
+    <t>LPN230926121148</t>
+  </si>
+  <si>
+    <t>TOTECJ33</t>
+  </si>
+  <si>
+    <t>MZ0100201C18</t>
+  </si>
+  <si>
+    <t>M-Z01-002-01-C-18</t>
+  </si>
+  <si>
+    <t>M-Z01-002-01-C-17</t>
+  </si>
+  <si>
+    <t>MZ0100201C17</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1173,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1215,10 +1225,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -1230,13 +1240,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>167</v>
@@ -1260,7 +1270,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1283,13 +1293,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1683,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1730,10 +1740,10 @@
     </row>
     <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1757,13 +1767,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -1922,7 +1932,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1947,9 +1957,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2094,7 +2104,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2132,10 +2142,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -2147,10 +2157,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2661,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -2698,10 +2708,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2746,7 +2756,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3203,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3245,10 +3255,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -3260,13 +3270,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>167</v>
@@ -4256,7 +4266,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4294,10 +4304,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -4309,10 +4319,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4402,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -4409,7 +4419,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4428,7 +4438,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>168</v>
@@ -4445,8 +4455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D859A9-AF7E-43AB-8784-E4CD0AEDEF70}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4465,7 +4475,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>174</v>
@@ -4481,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77745E16-8EA3-4D49-A85E-69FD9352E432}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4509,13 +4519,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCAFDD-A31D-43B3-84E7-F2357E36737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A87AA0-E0B1-468D-88A9-46171783909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="208">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -593,12 +593,6 @@
     <t>MGC23180700025</t>
   </si>
   <si>
-    <t>192531158180</t>
-  </si>
-  <si>
-    <t>SBA1230821055936</t>
-  </si>
-  <si>
     <t>USSG230821124450</t>
   </si>
   <si>
@@ -609,12 +603,6 @@
   </si>
   <si>
     <t>08/22/2023</t>
-  </si>
-  <si>
-    <t>TOTECJ97</t>
-  </si>
-  <si>
-    <t>TOTEBJ05</t>
   </si>
   <si>
     <t>SGW1230914051742</t>
@@ -630,76 +618,82 @@
     <t>CARTCJ81</t>
   </si>
   <si>
-    <t>SB202324080011</t>
-  </si>
-  <si>
-    <t>MSKI230926121204</t>
-  </si>
-  <si>
-    <t>LPN230926121204</t>
-  </si>
-  <si>
-    <t>TOTEEJ40</t>
-  </si>
-  <si>
-    <t>TOTEEJ41</t>
-  </si>
-  <si>
-    <t>CARTEJ41</t>
-  </si>
-  <si>
-    <t>TOTEEJ42</t>
-  </si>
-  <si>
-    <t>CARTEJ42</t>
-  </si>
-  <si>
-    <t>TOTEEJ43</t>
-  </si>
-  <si>
-    <t>TOTEEJ44</t>
-  </si>
-  <si>
-    <t>CARTEJ44</t>
-  </si>
-  <si>
-    <t>TOTEEJ45</t>
-  </si>
-  <si>
-    <t>CARTEJ45</t>
-  </si>
-  <si>
-    <t>MSKI230926121202</t>
-  </si>
-  <si>
-    <t>LPN230926121202</t>
-  </si>
-  <si>
-    <t>SSKI230926121150</t>
-  </si>
-  <si>
-    <t>LPN230926121150</t>
-  </si>
-  <si>
-    <t>SSKI230926121148</t>
-  </si>
-  <si>
-    <t>LPN230926121148</t>
-  </si>
-  <si>
-    <t>TOTECJ33</t>
-  </si>
-  <si>
-    <t>MZ0100201C18</t>
-  </si>
-  <si>
-    <t>M-Z01-002-01-C-18</t>
-  </si>
-  <si>
-    <t>M-Z01-002-01-C-17</t>
-  </si>
-  <si>
-    <t>MZ0100201C17</t>
+    <t>MZ0100103D12</t>
+  </si>
+  <si>
+    <t>M-Z01-001-03-D-12</t>
+  </si>
+  <si>
+    <t>045113367 3636</t>
+  </si>
+  <si>
+    <t>TOTEEJ02</t>
+  </si>
+  <si>
+    <t>TOTEEJ11</t>
+  </si>
+  <si>
+    <t>MZ0100201C15</t>
+  </si>
+  <si>
+    <t>M-Z01-002-01-C-15</t>
+  </si>
+  <si>
+    <t>SEB2230926120808</t>
+  </si>
+  <si>
+    <t>MSKI231005115813</t>
+  </si>
+  <si>
+    <t>LPN231005115813</t>
+  </si>
+  <si>
+    <t>TOTEKJ99</t>
+  </si>
+  <si>
+    <t>TOTEKJ98</t>
+  </si>
+  <si>
+    <t>CARTKJ98</t>
+  </si>
+  <si>
+    <t>TOTEKJ97</t>
+  </si>
+  <si>
+    <t>CARTKJ97</t>
+  </si>
+  <si>
+    <t>TOTEKJ96</t>
+  </si>
+  <si>
+    <t>TOTEKJ95</t>
+  </si>
+  <si>
+    <t>CARTKJ95</t>
+  </si>
+  <si>
+    <t>TOTEKJ94</t>
+  </si>
+  <si>
+    <t>CARTKJ94</t>
+  </si>
+  <si>
+    <t>MSKI231005115812</t>
+  </si>
+  <si>
+    <t>LPN231005115812</t>
+  </si>
+  <si>
+    <t>SSKI231005115808</t>
+  </si>
+  <si>
+    <t>LPN231005115808</t>
+  </si>
+  <si>
+    <t>SSKI231005115807</t>
+  </si>
+  <si>
+    <t>LPN231005115807</t>
   </si>
 </sst>
 </file>
@@ -833,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -889,6 +883,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,10 +1222,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -1240,13 +1237,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>167</v>
@@ -1270,7 +1267,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1293,13 +1290,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1530,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -1740,10 +1737,10 @@
     </row>
     <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1767,13 +1764,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -1932,7 +1929,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2104,7 +2101,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2142,10 +2139,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -2157,10 +2154,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2658,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -2708,10 +2705,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2756,7 +2753,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3203,7 +3200,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3255,10 +3252,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -3270,13 +3267,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>167</v>
@@ -4265,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE09BCE-9E52-40E2-B00A-6A46AF418C18}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4304,10 +4301,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -4319,10 +4316,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4402,7 +4399,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -4419,7 +4416,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4438,7 +4435,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>168</v>
@@ -4456,7 +4453,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4475,10 +4472,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4491,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77745E16-8EA3-4D49-A85E-69FD9352E432}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4519,13 +4516,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A87AA0-E0B1-468D-88A9-46171783909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEF2E872-D035-4BA0-8FB4-8A03CFA43646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -581,119 +581,118 @@
     <t xml:space="preserve">OrderNumber	</t>
   </si>
   <si>
+    <t>FILL20230002</t>
+  </si>
+  <si>
+    <t>KILL0520230006</t>
+  </si>
+  <si>
+    <t>MGC23180700025</t>
+  </si>
+  <si>
+    <t>192531158180</t>
+  </si>
+  <si>
+    <t>MZ0200201C13</t>
+  </si>
+  <si>
+    <t>M-Z02-002-01-C-13</t>
+  </si>
+  <si>
+    <t>TOTEAJ55</t>
+  </si>
+  <si>
+    <t>SBA1230821055936</t>
+  </si>
+  <si>
+    <t>SEB1230821060020</t>
+  </si>
+  <si>
+    <t>SEB1230821060021</t>
+  </si>
+  <si>
+    <t>TOTEAJ97</t>
+  </si>
+  <si>
+    <t>CARTAJ97</t>
+  </si>
+  <si>
+    <t>MGWCS20231708006</t>
+  </si>
+  <si>
+    <t>USSG230821124450</t>
+  </si>
+  <si>
+    <t>USSG230821124448</t>
+  </si>
+  <si>
+    <t>USSG230821124447</t>
+  </si>
+  <si>
+    <t>08/22/2023</t>
+  </si>
+  <si>
+    <t>M-Z02-002-01-C-01</t>
+  </si>
+  <si>
+    <t>MZ0200201C01</t>
+  </si>
+  <si>
     <t>qabhn</t>
   </si>
   <si>
-    <t>FILL20230002</t>
-  </si>
-  <si>
-    <t>KILL0520230006</t>
-  </si>
-  <si>
-    <t>MGC23180700025</t>
-  </si>
-  <si>
-    <t>USSG230821124450</t>
-  </si>
-  <si>
-    <t>USSG230821124448</t>
-  </si>
-  <si>
-    <t>USSG230821124447</t>
-  </si>
-  <si>
-    <t>08/22/2023</t>
-  </si>
-  <si>
-    <t>SGW1230914051742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SGW1230914051741</t>
-  </si>
-  <si>
-    <t>TOTECJ81</t>
-  </si>
-  <si>
-    <t>CARTCJ81</t>
-  </si>
-  <si>
-    <t>MZ0100103D12</t>
-  </si>
-  <si>
-    <t>M-Z01-001-03-D-12</t>
-  </si>
-  <si>
-    <t>045113367 3636</t>
-  </si>
-  <si>
-    <t>TOTEEJ02</t>
-  </si>
-  <si>
-    <t>TOTEEJ11</t>
-  </si>
-  <si>
-    <t>MZ0100201C15</t>
-  </si>
-  <si>
-    <t>M-Z01-002-01-C-15</t>
-  </si>
-  <si>
-    <t>SEB2230926120808</t>
-  </si>
-  <si>
-    <t>MSKI231005115813</t>
-  </si>
-  <si>
-    <t>LPN231005115813</t>
-  </si>
-  <si>
-    <t>TOTEKJ99</t>
-  </si>
-  <si>
-    <t>TOTEKJ98</t>
-  </si>
-  <si>
-    <t>CARTKJ98</t>
-  </si>
-  <si>
-    <t>TOTEKJ97</t>
-  </si>
-  <si>
-    <t>CARTKJ97</t>
-  </si>
-  <si>
-    <t>TOTEKJ96</t>
-  </si>
-  <si>
-    <t>TOTEKJ95</t>
-  </si>
-  <si>
-    <t>CARTKJ95</t>
-  </si>
-  <si>
-    <t>TOTEKJ94</t>
-  </si>
-  <si>
-    <t>CARTKJ94</t>
-  </si>
-  <si>
-    <t>MSKI231005115812</t>
-  </si>
-  <si>
-    <t>LPN231005115812</t>
-  </si>
-  <si>
-    <t>SSKI231005115808</t>
-  </si>
-  <si>
-    <t>LPN231005115808</t>
-  </si>
-  <si>
-    <t>SSKI231005115807</t>
-  </si>
-  <si>
-    <t>LPN231005115807</t>
+    <t>MTEST202310130001</t>
+  </si>
+  <si>
+    <t>LPNPT202310130001</t>
+  </si>
+  <si>
+    <t>MTEST202310130002</t>
+  </si>
+  <si>
+    <t>LPNPT202310130002</t>
+  </si>
+  <si>
+    <t>TOTEWD13</t>
+  </si>
+  <si>
+    <t>TOTEWD14</t>
+  </si>
+  <si>
+    <t>CARTWD11</t>
+  </si>
+  <si>
+    <t>TOTEWD15</t>
+  </si>
+  <si>
+    <t>TOTEWD16</t>
+  </si>
+  <si>
+    <t>MTEST202310130011</t>
+  </si>
+  <si>
+    <t>LPNMT202310130011</t>
+  </si>
+  <si>
+    <t>TOTEWD18</t>
+  </si>
+  <si>
+    <t>CARTWD12</t>
+  </si>
+  <si>
+    <t>MTEST202310130012</t>
+  </si>
+  <si>
+    <t>LPNMT202310130012</t>
+  </si>
+  <si>
+    <t>TOTEWD19</t>
+  </si>
+  <si>
+    <t>CARTWD13</t>
+  </si>
+  <si>
+    <t>TOTEWD20</t>
   </si>
 </sst>
 </file>
@@ -780,7 +779,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -884,9 +889,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB02B8F-B4BE-42FD-94AE-474ACC043146}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1221,7 +1227,7 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -1236,14 +1242,14 @@
       <c r="E2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="27" t="s">
         <v>194</v>
+      </c>
+      <c r="G2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" t="s">
+        <v>196</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>167</v>
@@ -1267,7 +1273,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,13 +1296,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1332,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="12"/>
     </row>
@@ -1340,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1460,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE7F363-C5B4-410C-9AA1-A793718D33A2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1484,10 +1490,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1503,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B0D987-6C09-4C0E-8480-26E9839C876F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -1680,7 +1686,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1929,7 +1935,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1954,9 +1960,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2101,7 +2107,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2139,10 +2145,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -2154,10 +2160,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
+      </c>
+      <c r="G2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2664,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -2705,10 +2711,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2753,7 +2759,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3200,7 +3206,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3251,11 +3257,11 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>203</v>
+      <c r="A2" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -3269,11 +3275,11 @@
       <c r="F2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>199</v>
+      <c r="H2" t="s">
+        <v>196</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>167</v>
@@ -4038,7 +4044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43433DC-A7ED-430E-B37C-D83837248979}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -4262,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE09BCE-9E52-40E2-B00A-6A46AF418C18}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4300,11 +4306,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>206</v>
+      <c r="A2" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -4315,11 +4321,11 @@
       <c r="E2" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>201</v>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4333,7 +4339,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4356,7 +4362,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>119</v>
@@ -4398,8 +4404,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>185</v>
+      <c r="A2" t="s">
+        <v>207</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -4416,7 +4422,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4435,7 +4441,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>168</v>
@@ -4453,7 +4459,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4472,10 +4478,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4489,7 +4495,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4516,13 +4522,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEF2E872-D035-4BA0-8FB4-8A03CFA43646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B438B3-527E-4390-BBF6-B1935A4C7643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="209">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -593,15 +593,6 @@
     <t>192531158180</t>
   </si>
   <si>
-    <t>MZ0200201C13</t>
-  </si>
-  <si>
-    <t>M-Z02-002-01-C-13</t>
-  </si>
-  <si>
-    <t>TOTEAJ55</t>
-  </si>
-  <si>
     <t>SBA1230821055936</t>
   </si>
   <si>
@@ -632,67 +623,80 @@
     <t>08/22/2023</t>
   </si>
   <si>
-    <t>M-Z02-002-01-C-01</t>
-  </si>
-  <si>
-    <t>MZ0200201C01</t>
-  </si>
-  <si>
     <t>qabhn</t>
   </si>
   <si>
-    <t>MTEST202310130001</t>
-  </si>
-  <si>
-    <t>LPNPT202310130001</t>
-  </si>
-  <si>
-    <t>MTEST202310130002</t>
-  </si>
-  <si>
-    <t>LPNPT202310130002</t>
-  </si>
-  <si>
-    <t>TOTEWD13</t>
-  </si>
-  <si>
-    <t>TOTEWD14</t>
-  </si>
-  <si>
-    <t>CARTWD11</t>
-  </si>
-  <si>
-    <t>TOTEWD15</t>
-  </si>
-  <si>
-    <t>TOTEWD16</t>
-  </si>
-  <si>
-    <t>MTEST202310130011</t>
-  </si>
-  <si>
-    <t>LPNMT202310130011</t>
-  </si>
-  <si>
-    <t>TOTEWD18</t>
-  </si>
-  <si>
-    <t>CARTWD12</t>
-  </si>
-  <si>
-    <t>MTEST202310130012</t>
-  </si>
-  <si>
-    <t>LPNMT202310130012</t>
-  </si>
-  <si>
-    <t>TOTEWD19</t>
-  </si>
-  <si>
-    <t>CARTWD13</t>
-  </si>
-  <si>
-    <t>TOTEWD20</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MSKI231027210609</t>
+  </si>
+  <si>
+    <t>LPN231027210609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SSKI231027210603</t>
+  </si>
+  <si>
+    <t>LPN231027210603</t>
+  </si>
+  <si>
+    <t>TOTEWD96</t>
+  </si>
+  <si>
+    <t>TOTEWD95</t>
+  </si>
+  <si>
+    <t>CARTWD96</t>
+  </si>
+  <si>
+    <t>TOTEWD94</t>
+  </si>
+  <si>
+    <t>CARTWD94</t>
+  </si>
+  <si>
+    <t>MSKI231027210608</t>
+  </si>
+  <si>
+    <t>LPN231027210608</t>
+  </si>
+  <si>
+    <t>TOTEWD89</t>
+  </si>
+  <si>
+    <t>TOTEWD88</t>
+  </si>
+  <si>
+    <t>CARTWD88</t>
+  </si>
+  <si>
+    <t>SSKI231027210602</t>
+  </si>
+  <si>
+    <t>LPN231027210602</t>
+  </si>
+  <si>
+    <t>TOTEWD87</t>
+  </si>
+  <si>
+    <t>CARTWD87</t>
+  </si>
+  <si>
+    <t>TOTEVV23</t>
+  </si>
+  <si>
+    <t>MZ0200201C05</t>
+  </si>
+  <si>
+    <t>M-Z02-002-01-C-05</t>
+  </si>
+  <si>
+    <t>M-Z02-002-01-C-07</t>
+  </si>
+  <si>
+    <t>MZ0200201C07</t>
   </si>
 </sst>
 </file>
@@ -832,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -893,6 +897,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB02B8F-B4BE-42FD-94AE-474ACC043146}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1227,11 +1234,11 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>190</v>
+      <c r="A2" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -1243,13 +1250,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>167</v>
@@ -1272,8 +1279,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1296,13 +1303,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1507,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B0D987-6C09-4C0E-8480-26E9839C876F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1536,7 +1543,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -1550,6 +1557,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1743,10 +1755,10 @@
     </row>
     <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1770,13 +1782,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -1962,7 +1974,7 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2107,7 +2119,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2145,10 +2157,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -2160,10 +2172,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2664,7 +2676,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -2711,10 +2723,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2759,7 +2771,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3218,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3257,11 +3269,11 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>192</v>
+      <c r="A2" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>162</v>
@@ -3273,13 +3285,13 @@
         <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>167</v>
@@ -4269,7 +4281,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4305,12 +4317,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>203</v>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>154</v>
@@ -4322,10 +4334,10 @@
         <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4362,7 +4374,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>119</v>
@@ -4405,7 +4417,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -4441,7 +4453,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>168</v>
@@ -4478,7 +4490,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>173</v>
@@ -4495,7 +4507,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4522,13 +4534,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B438B3-527E-4390-BBF6-B1935A4C7643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678689E8-5044-4962-9F38-F72D32027424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="209">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -383,12 +383,6 @@
     <t>EXPORTMBG004</t>
   </si>
   <si>
-    <t>TOTEZM45</t>
-  </si>
-  <si>
-    <t>CARTZM45</t>
-  </si>
-  <si>
     <t>TOTEZR47</t>
   </si>
   <si>
@@ -593,6 +587,18 @@
     <t>192531158180</t>
   </si>
   <si>
+    <t>MZ0200201C13</t>
+  </si>
+  <si>
+    <t>M-Z02-002-01-C-13</t>
+  </si>
+  <si>
+    <t>TOTEAJ77</t>
+  </si>
+  <si>
+    <t>TOTEAJ55</t>
+  </si>
+  <si>
     <t>SBA1230821055936</t>
   </si>
   <si>
@@ -623,80 +629,73 @@
     <t>08/22/2023</t>
   </si>
   <si>
-    <t>qabhn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>MSKI231027210609</t>
-  </si>
-  <si>
-    <t>LPN231027210609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SSKI231027210603</t>
-  </si>
-  <si>
-    <t>LPN231027210603</t>
-  </si>
-  <si>
-    <t>TOTEWD96</t>
-  </si>
-  <si>
-    <t>TOTEWD95</t>
-  </si>
-  <si>
-    <t>CARTWD96</t>
-  </si>
-  <si>
-    <t>TOTEWD94</t>
-  </si>
-  <si>
-    <t>CARTWD94</t>
-  </si>
-  <si>
-    <t>MSKI231027210608</t>
-  </si>
-  <si>
-    <t>LPN231027210608</t>
-  </si>
-  <si>
-    <t>TOTEWD89</t>
-  </si>
-  <si>
-    <t>TOTEWD88</t>
-  </si>
-  <si>
-    <t>CARTWD88</t>
-  </si>
-  <si>
-    <t>SSKI231027210602</t>
-  </si>
-  <si>
-    <t>LPN231027210602</t>
-  </si>
-  <si>
-    <t>TOTEWD87</t>
-  </si>
-  <si>
-    <t>CARTWD87</t>
-  </si>
-  <si>
-    <t>TOTEVV23</t>
-  </si>
-  <si>
-    <t>MZ0200201C05</t>
-  </si>
-  <si>
-    <t>M-Z02-002-01-C-05</t>
-  </si>
-  <si>
-    <t>M-Z02-002-01-C-07</t>
-  </si>
-  <si>
-    <t>MZ0200201C07</t>
+    <t>qabmanjusha</t>
+  </si>
+  <si>
+    <t>M-Z02-002-01-C-01</t>
+  </si>
+  <si>
+    <t>MZ0200201C01</t>
+  </si>
+  <si>
+    <t>MTEST202311130003</t>
+  </si>
+  <si>
+    <t>LPNMT2023113006</t>
+  </si>
+  <si>
+    <t>TOTEJQ63</t>
+  </si>
+  <si>
+    <t>CARTJQ62</t>
+  </si>
+  <si>
+    <t>LPNPT2023113008</t>
+  </si>
+  <si>
+    <t>MTEST202311300005</t>
+  </si>
+  <si>
+    <t>TOTEUQ62</t>
+  </si>
+  <si>
+    <t>TOTEUQ64</t>
+  </si>
+  <si>
+    <t>CARTUQ67</t>
+  </si>
+  <si>
+    <t>MTEST202311300007</t>
+  </si>
+  <si>
+    <t>LPNPT2023113010</t>
+  </si>
+  <si>
+    <t>TOTEWA70</t>
+  </si>
+  <si>
+    <t>TOTEWA71</t>
+  </si>
+  <si>
+    <t>CARTWA70</t>
+  </si>
+  <si>
+    <t>TOTECQ69</t>
+  </si>
+  <si>
+    <t>CARTCQ69</t>
+  </si>
+  <si>
+    <t>TOTECM45</t>
+  </si>
+  <si>
+    <t>CARTCM45</t>
+  </si>
+  <si>
+    <t>MTEST202311130012</t>
+  </si>
+  <si>
+    <t>LPNMT2023113012</t>
   </si>
 </sst>
 </file>
@@ -783,7 +782,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,12 +798,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -895,10 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,7 +1172,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1202,10 +1191,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>5</v>
@@ -1217,52 +1206,52 @@
         <v>8</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="D2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="G2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" t="s">
-        <v>199</v>
-      </c>
       <c r="I2" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -1279,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1303,13 +1292,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1328,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" s="12"/>
     </row>
@@ -1353,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1445,13 +1434,13 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -1473,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE7F363-C5B4-410C-9AA1-A793718D33A2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1497,10 +1486,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1514,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B0D987-6C09-4C0E-8480-26E9839C876F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1543,7 +1532,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -1557,11 +1546,6 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>185</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1735,13 +1719,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>13</v>
@@ -1755,10 +1739,10 @@
     </row>
     <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1782,13 +1766,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -1888,10 +1872,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1915,13 +1899,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -1974,7 +1958,7 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2066,7 +2050,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -2090,13 +2074,13 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -2119,7 +2103,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2134,10 +2118,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2149,33 +2133,33 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" t="s">
-        <v>203</v>
+        <v>191</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2621,7 +2605,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -2639,7 +2623,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +2660,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -2709,7 +2693,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -2723,10 +2707,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2760,7 +2744,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
@@ -2768,10 +2752,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +2993,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3033,13 +3017,13 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -3153,13 +3137,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -3183,19 +3167,19 @@
         <v>26</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>16</v>
@@ -3218,7 +3202,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3237,10 +3221,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>5</v>
@@ -3252,52 +3236,52 @@
         <v>8</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" t="s">
-        <v>192</v>
+        <v>200</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -3396,13 +3380,13 @@
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -3426,19 +3410,19 @@
         <v>26</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>16</v>
@@ -3551,13 +3535,13 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -3646,7 +3630,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3670,13 +3654,13 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -3765,7 +3749,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3789,13 +3773,13 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -3885,7 +3869,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3909,13 +3893,13 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -3924,7 +3908,7 @@
         <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +3988,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -4028,13 +4012,13 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -4056,7 +4040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43433DC-A7ED-430E-B37C-D83837248979}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -4280,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE09BCE-9E52-40E2-B00A-6A46AF418C18}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4296,10 +4280,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -4311,33 +4295,33 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" t="s">
-        <v>194</v>
+        <v>152</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4335,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4363,24 +4347,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4397,7 +4381,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4412,12 +4396,12 @@
         <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>204</v>
+      <c r="A2" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -4453,10 +4437,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -4490,10 +4474,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4491,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4529,18 +4513,18 @@
         <v>30</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678689E8-5044-4962-9F38-F72D32027424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97BBCC-3541-479B-957B-8418FBECE5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,7 +782,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,6 +798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -871,9 +877,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -886,8 +889,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,7 +1181,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1223,10 +1232,10 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>193</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1238,13 +1247,13 @@
       <c r="E2" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="27" t="s">
         <v>197</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -1463,7 +1472,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,7 +1540,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1738,10 +1747,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>178</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1957,7 +1966,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2103,7 +2112,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2140,10 +2149,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>190</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2155,10 +2164,10 @@
       <c r="E2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="28" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2659,7 +2668,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2706,7 +2715,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>183</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -3202,7 +3211,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3253,10 +3262,10 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -3268,13 +3277,13 @@
       <c r="E2" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="27" t="s">
         <v>202</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -4265,7 +4274,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4302,10 +4311,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="29" t="s">
         <v>208</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -4317,10 +4326,10 @@
       <c r="E2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="28" t="s">
         <v>204</v>
       </c>
     </row>

--- a/src/WMS_TestData.xlsx
+++ b/src/WMS_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97BBCC-3541-479B-957B-8418FBECE5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563F359-DA4E-49A4-B96E-8B71166975F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multi_ASN_LPN" sheetId="45" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="210">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -584,39 +584,6 @@
     <t>MGC23180700025</t>
   </si>
   <si>
-    <t>192531158180</t>
-  </si>
-  <si>
-    <t>MZ0200201C13</t>
-  </si>
-  <si>
-    <t>M-Z02-002-01-C-13</t>
-  </si>
-  <si>
-    <t>TOTEAJ77</t>
-  </si>
-  <si>
-    <t>TOTEAJ55</t>
-  </si>
-  <si>
-    <t>SBA1230821055936</t>
-  </si>
-  <si>
-    <t>SEB1230821060020</t>
-  </si>
-  <si>
-    <t>SEB1230821060021</t>
-  </si>
-  <si>
-    <t>TOTEAJ97</t>
-  </si>
-  <si>
-    <t>CARTAJ97</t>
-  </si>
-  <si>
-    <t>MGWCS20231708006</t>
-  </si>
-  <si>
     <t>USSG230821124450</t>
   </si>
   <si>
@@ -632,70 +599,106 @@
     <t>qabmanjusha</t>
   </si>
   <si>
-    <t>M-Z02-002-01-C-01</t>
-  </si>
-  <si>
-    <t>MZ0200201C01</t>
-  </si>
-  <si>
-    <t>MTEST202311130003</t>
-  </si>
-  <si>
-    <t>LPNMT2023113006</t>
-  </si>
-  <si>
-    <t>TOTEJQ63</t>
-  </si>
-  <si>
-    <t>CARTJQ62</t>
-  </si>
-  <si>
-    <t>LPNPT2023113008</t>
-  </si>
-  <si>
-    <t>MTEST202311300005</t>
-  </si>
-  <si>
-    <t>TOTEUQ62</t>
-  </si>
-  <si>
-    <t>TOTEUQ64</t>
-  </si>
-  <si>
-    <t>CARTUQ67</t>
-  </si>
-  <si>
-    <t>MTEST202311300007</t>
-  </si>
-  <si>
-    <t>LPNPT2023113010</t>
-  </si>
-  <si>
-    <t>TOTEWA70</t>
-  </si>
-  <si>
-    <t>TOTEWA71</t>
-  </si>
-  <si>
-    <t>CARTWA70</t>
-  </si>
-  <si>
-    <t>TOTECQ69</t>
-  </si>
-  <si>
-    <t>CARTCQ69</t>
-  </si>
-  <si>
     <t>TOTECM45</t>
   </si>
   <si>
     <t>CARTCM45</t>
   </si>
   <si>
-    <t>MTEST202311130012</t>
-  </si>
-  <si>
-    <t>LPNMT2023113012</t>
+    <t>TOTEZY55</t>
+  </si>
+  <si>
+    <t>TOTEZY56</t>
+  </si>
+  <si>
+    <t>CARTZY55</t>
+  </si>
+  <si>
+    <t>TOTEZY57</t>
+  </si>
+  <si>
+    <t>CARTZY57</t>
+  </si>
+  <si>
+    <t>TOTEZY58</t>
+  </si>
+  <si>
+    <t>TOTEZY59</t>
+  </si>
+  <si>
+    <t>CARTZY59</t>
+  </si>
+  <si>
+    <t>TOTEZY49</t>
+  </si>
+  <si>
+    <t>CARTZY49</t>
+  </si>
+  <si>
+    <t>MSKI240401103554</t>
+  </si>
+  <si>
+    <t>LPN240401103554</t>
+  </si>
+  <si>
+    <t>MSKI240401103553</t>
+  </si>
+  <si>
+    <t>LPN240401103553</t>
+  </si>
+  <si>
+    <t>SSKI240402104445</t>
+  </si>
+  <si>
+    <t>LPN240402104445</t>
+  </si>
+  <si>
+    <t>SSKI240402104444</t>
+  </si>
+  <si>
+    <t>LPN240402104444</t>
+  </si>
+  <si>
+    <t>TOTEZY94</t>
+  </si>
+  <si>
+    <t>055100136 7662</t>
+  </si>
+  <si>
+    <t>885608129304</t>
+  </si>
+  <si>
+    <t>TOTEDS06</t>
+  </si>
+  <si>
+    <t>MZ0300201C09</t>
+  </si>
+  <si>
+    <t>M-Z03-002-01-C-09</t>
+  </si>
+  <si>
+    <t>MZ0300201C11</t>
+  </si>
+  <si>
+    <t>M-Z03-002-01-C-11</t>
+  </si>
+  <si>
+    <t>SGW2404120020</t>
+  </si>
+  <si>
+    <t>SB202412040006</t>
+  </si>
+  <si>
+    <t>SB202412040005</t>
+  </si>
+  <si>
+    <t>TOTEZY61</t>
+  </si>
+  <si>
+    <t>CARTZY61</t>
+  </si>
+  <si>
+    <t>SGW2404120019</t>
   </si>
 </sst>
 </file>
@@ -835,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -847,12 +850,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,7 +858,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -874,12 +870,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -895,9 +886,20 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,7 +1183,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1199,70 +1201,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="F2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1278,7 +1280,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1300,14 +1302,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>173</v>
+      <c r="C2" s="30" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +1323,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1336,10 +1338,10 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1443,13 +1445,13 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -1472,7 +1474,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1494,10 +1496,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1540,13 +1542,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>176</v>
+      <c r="A2" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D2" t="s">
@@ -1554,7 +1556,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,7 +1693,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1700,10 +1702,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1727,13 +1729,13 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>162</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="13" t="s">
         <v>163</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1747,11 +1749,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>178</v>
+      <c r="A2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1775,13 +1777,13 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -1794,7 +1796,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
+      <c r="B4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1939,8 +1941,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1965,9 +1967,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>181</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -2112,7 +2114,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2129,7 +2131,7 @@
       <c r="A1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C1" t="s">
@@ -2149,26 +2151,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>192</v>
+      <c r="F2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2668,8 +2670,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>182</v>
+      <c r="A2" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -2715,11 +2717,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>184</v>
+      <c r="A2" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2763,8 +2765,8 @@
       <c r="A2" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>185</v>
+      <c r="B2" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +3213,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3229,70 +3231,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4273,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE09BCE-9E52-40E2-B00A-6A46AF418C18}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4311,26 +4313,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>204</v>
+      <c r="F2" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4344,7 +4346,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4366,13 +4368,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="25" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4390,29 +4392,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="27.54296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4427,7 +4429,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4445,11 +4447,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>166</v>
+      <c r="A2" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -4482,11 +4484,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>171</v>
+      <c r="A2" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4500,7 +4502,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4521,21 +4523,21 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
